--- a/Tests/test_recap_group_5.xlsx
+++ b/Tests/test_recap_group_5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>nom fichier</t>
   </si>
@@ -84,6 +84,33 @@
   </si>
   <si>
     <t>Si on met une majuscule à un déterminant en milieu de phrase, le groupe nominal est considéré comme une entité. Sinon, ce n'est pas le cas.</t>
+  </si>
+  <si>
+    <t>La fonction fait apparaître tous les mots du texte sous forme de liste.</t>
+  </si>
+  <si>
+    <t>Ne fait apparaître que des entités nommées.</t>
+  </si>
+  <si>
+    <t>tag_test</t>
+  </si>
+  <si>
+    <t>Une partie des commentaires est réalisée en français.</t>
+  </si>
+  <si>
+    <t>g5_named_entity.py</t>
+  </si>
+  <si>
+    <t>import_daily_jason</t>
+  </si>
+  <si>
+    <t>g5_import</t>
+  </si>
+  <si>
+    <t>Il faudra adapter le chemin source si on l'exécute sur un autre ordinateur</t>
+  </si>
+  <si>
+    <t>La fonction importe un répertoire et renvoie un dictionnnaire d'articles.</t>
   </si>
 </sst>
 </file>
@@ -148,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,6 +214,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,7 +510,7 @@
     <col min="2" max="2" width="26.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.453125" customWidth="1"/>
     <col min="4" max="4" width="78.81640625" customWidth="1"/>
-    <col min="5" max="5" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="37.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -559,76 +589,105 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>43117</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C8" s="9">
         <v>43116</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C9" s="9">
         <v>43116</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D11" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43117</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
@@ -656,13 +715,13 @@
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -673,14 +732,24 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
